--- a/DateBase/orders/Nhat 48_2025-12-10.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-10.xlsx
@@ -1110,6 +1110,9 @@
       <c r="C81" t="str">
         <v>48_香格里拉_undefined_Gerbera L._10stems</v>
       </c>
+      <c r="F81" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1171,7 +1174,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>081515555101010102030686178787577814211383106141666101288712568812105152230161695205515655555105516141059118205100</v>
+        <v>081515555101010102030686178787577814211383106141666101288712568812105152230161695205515655555105516141059118205105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-10.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-10.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1114,9 +1114,36 @@
         <v>5</v>
       </c>
     </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
+      </c>
+      <c r="F82" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>1</v>
+      </c>
+      <c r="C83" t="str">
+        <v>560_橙菠萝_Safflower_undefined_1bunch</v>
+      </c>
+      <c r="F83" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>721_银扇干花_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F84" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L81"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L84"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1174,7 +1201,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>081515555101010102030686178787577814211383106141666101288712568812105152230161695205515655555105516141059118205105</v>
+        <v>08151555510101010203068617878757781421138310614166610128871256881210515223016169520551565555510551614105911820510551010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-10.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-10.xlsx
@@ -1203,6 +1203,9 @@
       <c r="G2" t="str">
         <v>08151555510101010203068617878757781421138310614166610128871256881210515223016169520551565555510551614105911820510551010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
